--- a/EFlowerShopAdminApplication/files/users.xlsx
+++ b/EFlowerShopAdminApplication/files/users.xlsx
@@ -14,24 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
-  <si>
-    <t>mihaela@gmail.com</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Test123!</t>
   </si>
   <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>Mihaela</t>
-  </si>
-  <si>
-    <t>Perikj</t>
+    <t>User Name 1</t>
+  </si>
+  <si>
+    <t>User Name 2</t>
+  </si>
+  <si>
+    <t>User Surname 1</t>
+  </si>
+  <si>
+    <t>User Surname 2</t>
+  </si>
+  <si>
+    <t>user1@gmail.com</t>
+  </si>
+  <si>
+    <t>user2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -387,11 +390,13 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" customWidth="1"/>
@@ -401,36 +406,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>0</v>
       </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
       <c r="E2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
